--- a/evaluation/popularity.xlsx
+++ b/evaluation/popularity.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>solution_distance</t>
+          <t>closest_solution_edit_distance</t>
         </is>
       </c>
     </row>
